--- a/planilhas/faltas_temporario.xlsx
+++ b/planilhas/faltas_temporario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,294 +448,534 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ana Clara leal Almeida</t>
+          <t>Alyce Aymee Dos Santos Martins</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(92)98616-6641</t>
+          <t>(92)98483-1756</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ana Nayla Bahia Ribeiro</t>
+          <t>Ana Beatriz Dorzone Dos Santos</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(92)98420-3606</t>
+          <t>(92)99435-2181</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Anthony Evangelista Alencar Pontes</t>
+          <t>Arthur Cardoso Simoes</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(92)99185-6612</t>
+          <t>(92)99261-7157</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Arthur Cardoso Simoes</t>
+          <t>ASAFI FARIAS DOS SANTOS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(92)99261-7157</t>
+          <t>(92)99494-8016</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Caroline Dos Santos Pinheiro</t>
+          <t>Beatriz de Oliveira de Souza</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(92)99169-1614</t>
+          <t>(92)98436-8609</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Davi de Oliveira Hosannah</t>
+          <t>Bryan Nicolas Farias Reis de Souza</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(92)98138-8700</t>
+          <t>(92)99529-1381</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Erica Da Costa Pereira</t>
+          <t>Caio Vinicius Silva dos Santos</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(92)99160-1645</t>
+          <t>(92)98614-4285</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hainy Claudete Da Silva</t>
+          <t>Caroline Dos Santos Pinheiro</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(92)98282-1555</t>
+          <t>(92)99169-1614</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Helena Izabel Lima De Castro</t>
+          <t>Daniel Josue Berenguel Rivero</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(92)99100-3409</t>
+          <t>(92)99503-9334</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ingrid do Nascimento Souza</t>
+          <t>Davi Da Costa Pinheiro</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(92)98115-0798</t>
+          <t>(92)99136-7147</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>João Guilherme Gomes Oliva</t>
+          <t>Eduarda Lima Cerdeira</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(92)99134-3826</t>
+          <t>(92)99969-0585</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Julya Souza Campos</t>
+          <t>EDUARDA RODRIGUES DE SOUZA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(92)99133-7756</t>
+          <t>(92)99118-9633</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kaio Nogueira Ramos</t>
+          <t>Ellias Henrique Souza da Silva</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(92)99185-8068</t>
+          <t>(92)99112-0698</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Leonardo Souza Siqueira</t>
+          <t>Eloa Helena Souza Da Silva</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>(92)99416-0202</t>
+          <t>(92)99265-9802</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lissandra Sophia Lima De Souza</t>
+          <t>GIOVANNA YASMIM MONTEIRO DE SOUZA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>(92)99134-7536</t>
+          <t>(92)99500-3769</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ludmylla Gomes Pinheiro</t>
+          <t>Huan de Jesus Gomes</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>(92)98410-0424</t>
+          <t>(92)99905-8910</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Marcelo Souza Siqueira</t>
+          <t>Isaque Pereira dos Santos</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(92)99416-0202</t>
+          <t>(92)98809-9131</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Maria Alderlene Silva Moreira</t>
+          <t>Jessica Jade Freitas Assis</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>(92)98427-7264</t>
+          <t>(92)98526-0017</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Otavio Cesar da Silva Moraes</t>
+          <t>John Will Gomes Alves</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(92)98560-3199</t>
+          <t>(92)99461-5159</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pedro Gustavo Fernandes de Oliveira</t>
+          <t>Josilene de Souza Ribeiro</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>(92)99208-4673</t>
+          <t>(92)99426-6059</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pietra Monteiro da Silva</t>
+          <t>Julya Souza Campos</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(92)98100-1106</t>
+          <t>(92)99133-7756</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Reissa da Rocha Carneiro</t>
+          <t>Kaio Nogueira Ramos</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>(92)98440-7418</t>
+          <t>(92)99185-8068</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Thayssa Eduarda Pinto Machado</t>
+          <t>Kauã Gonçalves Gouveia</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(92)99394-4102</t>
+          <t>(92)99252-0425</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tiago Costa Seixas</t>
+          <t>Kaue Bryan Coutinho Brasil</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>(92)99419-8133</t>
+          <t>(92)99320-9602</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Leon Vinicius Gomes Santiago Oliveira</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>(92)99165-2738</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Luiz Gustavo Soares Bastos</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>(92)98159-0608</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Marcos Kauã Costa de Souza</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>(92)99449-4864</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Marcos Paulo de Lima Silva</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>(92)99613-6773</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Maria Alderlene Silva Moreira</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>(92)98427-7264</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Maria Clara Abreu Balieiro</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>(92)99218-5889</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mario Randerson Mota da Silva</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>(92)99187-4006</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mateus Santarem da Silva</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>(92)99112-4739</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Milena Emanuele Rodrigues Pires Pereira</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>(92)99112-4926</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nadrielly Wendeli De Queiroz Brasil</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>(92)99264-2214</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Neilane Rodrigues da Costa</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>(97)98428-9832</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Pedro Andre Abreu de Queiroz</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>(97)99194-6845</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Reissa da Rocha Carneiro</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>(92)98440-7418</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Reissa Da Rocha Carneiro</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>(92)98505-6468</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Samuel Silva Dos Anjos</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>(92)98504-7918</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Steven Silva Dos Anjos</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>(92)98504-7918</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tamara Suely Rodrigues Carvalho</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>(92) 9145-9299</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Thaylla Renatha Oliveira Da Silva</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>(92)98844-6266</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Vania Lucia Boerger</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>(65)99911-8971</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Yamile Said da Costa Bernola</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>(92)98432-9251</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
